--- a/Fahrradstrassenzeitpunkte.xlsx
+++ b/Fahrradstrassenzeitpunkte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerstin\Desktop\Data Analysis Seminar\Kerstin_Michael\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E9981-D995-406F-8B81-AA7DAEE63769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B839E01-D709-4A40-AEF3-222F976900A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{035A8D71-76F8-4DAD-AC6D-52AAB4FA30D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">neue Fahrradstrassenmarkierungen in Basel </t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>https://grosserrat.bs.ch/dokumente/100397/000000397688.pdf</t>
+  </si>
+  <si>
+    <t>Fahrradzählungen vorhanden</t>
+  </si>
+  <si>
+    <t>seit 2016</t>
+  </si>
+  <si>
+    <t>seit 2011 (St. Gallerring)</t>
+  </si>
+  <si>
+    <t>astra-bericht-2019_pilotversuch-velostrassen_de.pdf</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,12 +223,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -552,169 +571,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDED5287-43B9-4643-9AA7-DB629CF775BE}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="10">
+        <v>42614</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>42614</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>2021</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="https://www.bs.ch/medienmitteilungen/bvd/2022-erneuerung-oberwilerstrasse-bringt-mehr-sicherheit-fuer-velofahrende" xr:uid="{362D2C60-39B0-41B6-9659-B15D6745EB05}"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://www.bs.ch/medienmitteilungen/bvd/2022-erneuerung-oberwilerstrasse-bringt-mehr-sicherheit-fuer-velofahrende" xr:uid="{362D2C60-39B0-41B6-9659-B15D6745EB05}"/>
     <hyperlink ref="A15" r:id="rId2" display="https://www.basel-unterwegs.ch/blog/2025/03/velostrassen-basel/" xr:uid="{740BB4CB-65E6-4338-8731-AD8B04A4B6BC}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{A9C60BEE-0EDD-4CD3-8E49-21544C267AB3}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{A9C60BEE-0EDD-4CD3-8E49-21544C267AB3}"/>
     <hyperlink ref="A17" r:id="rId4" xr:uid="{F0C34914-D80B-4E1C-9C2A-06D809FA569B}"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://www.mobilservice.ch/admin/data/files/mobility_topic_section_file/file/533/astra-bericht-2019_pilotversuch-velostrassen_de.pdf?lm=1606750357" xr:uid="{02224044-8403-4903-8838-CBECD401EA81}"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://www.mobilservice.ch/admin/data/files/mobility_topic_section_file/file/533/astra-bericht-2019_pilotversuch-velostrassen_de.pdf?lm=1606750357" xr:uid="{407B8BDC-77BF-4644-9BAD-899B9C107E7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="11859588-4e0b-411c-aab6-587367ca6dfc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A0F3844433E86844B52CC69EB90E0AF3" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6257290b025a293163e417f829a44bfb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="11859588-4e0b-411c-aab6-587367ca6dfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a9fc4b9ff9c5f3aecb13e032ee4fe1b" ns3:_="">
     <xsd:import namespace="11859588-4e0b-411c-aab6-587367ca6dfc"/>
@@ -870,10 +901,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="11859588-4e0b-411c-aab6-587367ca6dfc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE75252-755E-4039-BD5F-EDAA64ABD5DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8124BA73-E8DF-4AC8-9C14-B2533521A5CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="11859588-4e0b-411c-aab6-587367ca6dfc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -895,19 +953,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8124BA73-E8DF-4AC8-9C14-B2533521A5CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE75252-755E-4039-BD5F-EDAA64ABD5DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="11859588-4e0b-411c-aab6-587367ca6dfc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>